--- a/docs/mapping_1.xlsx
+++ b/docs/mapping_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E5F1C7CF-4CCF-4B33-8AF2-5C2AB175DD62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{64DBC902-9248-42B5-B241-B154A5F5B0EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="料盒动作地址" sheetId="4" r:id="rId1"/>
@@ -1644,1463 +1644,1462 @@
     <t>M9</t>
   </si>
   <si>
+    <t>工站1画面</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>X781</t>
+  </si>
+  <si>
+    <t>站1右CNC加工中（通讯输入2）</t>
+  </si>
+  <si>
+    <t>控制站1CNC数控机床加工状态灯的亮灭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于站1的运行状态灯</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4510</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站1预设产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站1目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4500</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站1当前产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站1实际产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站1完成率</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站1实际产量/站1目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站1运行时间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用站1的运行状态来设置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站2画面</t>
+  </si>
+  <si>
+    <t>X784</t>
+  </si>
+  <si>
+    <t>站2右CNC加工中（通讯输入2）</t>
+  </si>
+  <si>
+    <t>控制站2CNC数控机床加工状态灯的亮灭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于站2的运行状态灯</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站2运行时间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用站2的运行状态来设置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站2完成率</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站2实际产量/站2目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4512</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站2预设产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站2目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4502</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站2当前产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站2实际产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站3画面</t>
+  </si>
+  <si>
+    <t>X7A1</t>
+  </si>
+  <si>
+    <t>站3右CNC通讯输入2</t>
+  </si>
+  <si>
+    <t>控制站3CNC数控机床加工状态灯的亮灭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于站3的运行状态灯</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站3运行时间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用站3的运行状态来设置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站3完成率</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站3实际产量/站3目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4514</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站3预设产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站3目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4504</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站3当前产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站3实际产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站4画面</t>
+  </si>
+  <si>
+    <t>X702</t>
+  </si>
+  <si>
+    <t>站4右CNC通讯输入2</t>
+  </si>
+  <si>
+    <t>控制站4CNC数控机床加工状态灯的亮灭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于站4的运行状态灯</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站4运行时间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用站4的运行状态来设置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站4完成率</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站4实际产量/站4目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4516</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站4预设产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站4目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4506</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站4当前产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站4实际产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站5画面</t>
+  </si>
+  <si>
+    <t>X7C1</t>
+  </si>
+  <si>
+    <t>站5右CNC通讯输入2</t>
+  </si>
+  <si>
+    <t>控制站5CNC数控机床加工状态灯的亮灭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于站5的运行状态灯</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站5运行时间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用站5的运行状态来设置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站5完成率</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站5实际产量/站5目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4518</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站5预设产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站5目标产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4508</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>工站5当前产量（块）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>站5实际产量</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>M400</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>下料满</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>M400-》M3136</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3130</t>
+  </si>
+  <si>
+    <t>HMI输送线启动</t>
+  </si>
+  <si>
+    <t>小车输送线启停状态</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3136</t>
+  </si>
+  <si>
+    <t>输送线暂停</t>
+  </si>
+  <si>
+    <t>LW4536</t>
+  </si>
+  <si>
+    <t>LW4526</t>
+  </si>
+  <si>
+    <t>LB7</t>
+  </si>
+  <si>
+    <t>LB8</t>
+  </si>
+  <si>
+    <t>LB9</t>
+  </si>
+  <si>
+    <t>LB781</t>
+  </si>
+  <si>
+    <t>LW4510</t>
+  </si>
+  <si>
+    <t>LW4500</t>
+  </si>
+  <si>
+    <t>LB784</t>
+  </si>
+  <si>
+    <t>LW4512</t>
+  </si>
+  <si>
+    <t>LW4502</t>
+  </si>
+  <si>
+    <t>LB7A1</t>
+  </si>
+  <si>
+    <t>LW4514</t>
+  </si>
+  <si>
+    <t>LW4504</t>
+  </si>
+  <si>
+    <t>LB702</t>
+  </si>
+  <si>
+    <t>LW4516</t>
+  </si>
+  <si>
+    <t>LW4506</t>
+  </si>
+  <si>
+    <t>LB7C1</t>
+  </si>
+  <si>
+    <t>LW4518</t>
+  </si>
+  <si>
+    <t>LW4508</t>
+  </si>
+  <si>
+    <t>LB3130</t>
+  </si>
+  <si>
+    <t>LB3136</t>
+  </si>
+  <si>
+    <t>D4536</t>
+  </si>
+  <si>
+    <t>D4526</t>
+  </si>
+  <si>
+    <t>D4510</t>
+  </si>
+  <si>
+    <t>D4500</t>
+  </si>
+  <si>
+    <t>D4512</t>
+  </si>
+  <si>
+    <t>D4502</t>
+  </si>
+  <si>
+    <t>D4514</t>
+  </si>
+  <si>
+    <t>D4504</t>
+  </si>
+  <si>
+    <t>D4516</t>
+  </si>
+  <si>
+    <t>D4506</t>
+  </si>
+  <si>
+    <t>D4518</t>
+  </si>
+  <si>
+    <t>D4508</t>
+  </si>
+  <si>
+    <t>M7000</t>
+  </si>
+  <si>
+    <t>M7001</t>
+  </si>
+  <si>
+    <t>M7002</t>
+  </si>
+  <si>
+    <t>M7003</t>
+  </si>
+  <si>
+    <t>M7004</t>
+  </si>
+  <si>
+    <t>M7005</t>
+  </si>
+  <si>
+    <t>M7006</t>
+  </si>
+  <si>
+    <t>M7007</t>
+  </si>
+  <si>
+    <t>M7008</t>
+  </si>
+  <si>
+    <t>M7009</t>
+  </si>
+  <si>
+    <t>M7010</t>
+  </si>
+  <si>
+    <t>M7011</t>
+  </si>
+  <si>
+    <t>M7012</t>
+  </si>
+  <si>
+    <t>M7013</t>
+  </si>
+  <si>
+    <t>M7014</t>
+  </si>
+  <si>
+    <t>M7015</t>
+  </si>
+  <si>
+    <t>M7019</t>
+  </si>
+  <si>
+    <t>M7020</t>
+  </si>
+  <si>
+    <t>M7021</t>
+  </si>
+  <si>
+    <t>M7022</t>
+  </si>
+  <si>
+    <t>M7024</t>
+  </si>
+  <si>
+    <t>M7025</t>
+  </si>
+  <si>
+    <t>M7026</t>
+  </si>
+  <si>
+    <t>M7027</t>
+  </si>
+  <si>
+    <t>M8000</t>
+  </si>
+  <si>
+    <t>M8001</t>
+  </si>
+  <si>
+    <t>M8002</t>
+  </si>
+  <si>
+    <t>M8003</t>
+  </si>
+  <si>
+    <t>M8004</t>
+  </si>
+  <si>
+    <t>M8005</t>
+  </si>
+  <si>
+    <t>M8006</t>
+  </si>
+  <si>
+    <t>M8007</t>
+  </si>
+  <si>
+    <t>M8008</t>
+  </si>
+  <si>
+    <t>M8009</t>
+  </si>
+  <si>
+    <t>M8010</t>
+  </si>
+  <si>
+    <t>M8011</t>
+  </si>
+  <si>
+    <t>M8012</t>
+  </si>
+  <si>
+    <t>M8013</t>
+  </si>
+  <si>
+    <t>M8014</t>
+  </si>
+  <si>
+    <t>M8015</t>
+  </si>
+  <si>
+    <t>M8019</t>
+  </si>
+  <si>
+    <t>M8020</t>
+  </si>
+  <si>
+    <t>M8021</t>
+  </si>
+  <si>
+    <t>M8022</t>
+  </si>
+  <si>
+    <t>M8024</t>
+  </si>
+  <si>
+    <t>M8025</t>
+  </si>
+  <si>
+    <t>M8026</t>
+  </si>
+  <si>
+    <t>M8027</t>
+  </si>
+  <si>
+    <t>M8040</t>
+  </si>
+  <si>
+    <t>M8041</t>
+  </si>
+  <si>
+    <t>M8042</t>
+  </si>
+  <si>
+    <t>M8043</t>
+  </si>
+  <si>
+    <t>M8044</t>
+  </si>
+  <si>
+    <t>M8045</t>
+  </si>
+  <si>
+    <t>M8046</t>
+  </si>
+  <si>
+    <t>M8047</t>
+  </si>
+  <si>
+    <t>M8048</t>
+  </si>
+  <si>
+    <t>M8049</t>
+  </si>
+  <si>
+    <t>M8050</t>
+  </si>
+  <si>
+    <t>M8051</t>
+  </si>
+  <si>
+    <t>M8052</t>
+  </si>
+  <si>
+    <t>M8053</t>
+  </si>
+  <si>
+    <t>M8054</t>
+  </si>
+  <si>
+    <t>M8055</t>
+  </si>
+  <si>
+    <t>M8056</t>
+  </si>
+  <si>
+    <t>M8057</t>
+  </si>
+  <si>
+    <t>M8058</t>
+  </si>
+  <si>
+    <t>M8059</t>
+  </si>
+  <si>
+    <t>M8060</t>
+  </si>
+  <si>
+    <t>M8061</t>
+  </si>
+  <si>
+    <t>M8062</t>
+  </si>
+  <si>
+    <t>M8063</t>
+  </si>
+  <si>
+    <t>M8064</t>
+  </si>
+  <si>
+    <t>M8065</t>
+  </si>
+  <si>
+    <t>M8080</t>
+  </si>
+  <si>
+    <t>M8081</t>
+  </si>
+  <si>
+    <t>M8082</t>
+  </si>
+  <si>
+    <t>M8083</t>
+  </si>
+  <si>
+    <t>M8084</t>
+  </si>
+  <si>
+    <t>M8085</t>
+  </si>
+  <si>
+    <t>M8086</t>
+  </si>
+  <si>
+    <t>M8087</t>
+  </si>
+  <si>
+    <t>M8088</t>
+  </si>
+  <si>
+    <t>M8089</t>
+  </si>
+  <si>
+    <t>M8090</t>
+  </si>
+  <si>
+    <t>M8091</t>
+  </si>
+  <si>
+    <t>M8092</t>
+  </si>
+  <si>
+    <t>M8093</t>
+  </si>
+  <si>
+    <t>M8094</t>
+  </si>
+  <si>
+    <t>M8095</t>
+  </si>
+  <si>
+    <t>M8096</t>
+  </si>
+  <si>
+    <t>M8097</t>
+  </si>
+  <si>
+    <t>M8098</t>
+  </si>
+  <si>
+    <t>M8099</t>
+  </si>
+  <si>
+    <t>M8100</t>
+  </si>
+  <si>
+    <t>M8101</t>
+  </si>
+  <si>
+    <t>M8102</t>
+  </si>
+  <si>
+    <t>M8103</t>
+  </si>
+  <si>
+    <t>M8104</t>
+  </si>
+  <si>
+    <t>M8105</t>
+  </si>
+  <si>
+    <t>M8120</t>
+  </si>
+  <si>
+    <t>M8121</t>
+  </si>
+  <si>
+    <t>M8122</t>
+  </si>
+  <si>
+    <t>M8123</t>
+  </si>
+  <si>
+    <t>M8124</t>
+  </si>
+  <si>
+    <t>M8125</t>
+  </si>
+  <si>
+    <t>M8126</t>
+  </si>
+  <si>
+    <t>M8127</t>
+  </si>
+  <si>
+    <t>M8128</t>
+  </si>
+  <si>
+    <t>M8129</t>
+  </si>
+  <si>
+    <t>M8130</t>
+  </si>
+  <si>
+    <t>M8131</t>
+  </si>
+  <si>
+    <t>M8132</t>
+  </si>
+  <si>
+    <t>M8133</t>
+  </si>
+  <si>
+    <t>M8134</t>
+  </si>
+  <si>
+    <t>M8135</t>
+  </si>
+  <si>
+    <t>M8136</t>
+  </si>
+  <si>
+    <t>M8137</t>
+  </si>
+  <si>
+    <t>M8138</t>
+  </si>
+  <si>
+    <t>M8139</t>
+  </si>
+  <si>
+    <t>M8140</t>
+  </si>
+  <si>
+    <t>M8141</t>
+  </si>
+  <si>
+    <t>M8142</t>
+  </si>
+  <si>
+    <t>M8143</t>
+  </si>
+  <si>
+    <t>M8144</t>
+  </si>
+  <si>
+    <t>M8145</t>
+  </si>
+  <si>
+    <t>站1上下到等待位</t>
+  </si>
+  <si>
+    <t>站1上下到取料位</t>
+  </si>
+  <si>
+    <t>站1上下到左放料位</t>
+  </si>
+  <si>
+    <t>站1上下到右放料位</t>
+  </si>
+  <si>
+    <t>站1横移到取料位</t>
+  </si>
+  <si>
+    <t>站1横移到左放料位</t>
+  </si>
+  <si>
+    <t>站1横移到右放料位</t>
+  </si>
+  <si>
+    <t>站1旋转到取料位</t>
+  </si>
+  <si>
+    <t>站1旋转到(前放料/后取成)</t>
+  </si>
+  <si>
+    <t>站1旋转到(前取成/后放料)</t>
+  </si>
+  <si>
+    <t>站1吸盘到平移位</t>
+  </si>
+  <si>
+    <t>站1吸盘到前取料位</t>
+  </si>
+  <si>
+    <t>站1吸盘到后取料位</t>
+  </si>
+  <si>
+    <t>站1左CNC辅助启动</t>
+  </si>
+  <si>
+    <t>站1右CNC辅助启动</t>
+  </si>
+  <si>
+    <t>站1上下到翻转等待位</t>
+  </si>
+  <si>
+    <t>站1左CNC加工完成</t>
+  </si>
+  <si>
+    <t>站1左CNC等待上料</t>
+  </si>
+  <si>
+    <t>站1左CNC屏蔽ing</t>
+  </si>
+  <si>
+    <t>站1右CNC加工完成</t>
+  </si>
+  <si>
+    <t>站1右CNC屏蔽ing</t>
+  </si>
+  <si>
+    <t>站2上下到等待位</t>
+  </si>
+  <si>
+    <t>站2上下到取料位</t>
+  </si>
+  <si>
+    <t>站2上下到左放料位</t>
+  </si>
+  <si>
+    <t>站2上下到右放料位</t>
+  </si>
+  <si>
+    <t>站2横移到取料位</t>
+  </si>
+  <si>
+    <t>站2横移到左放料位</t>
+  </si>
+  <si>
+    <t>站2横移到右放料位</t>
+  </si>
+  <si>
+    <t>站2旋转到取料位</t>
+  </si>
+  <si>
+    <t>站2旋转到(前放料/后取成)</t>
+  </si>
+  <si>
+    <t>站2旋转到(前取成/后放料)</t>
+  </si>
+  <si>
+    <t>站2吸盘到平移位</t>
+  </si>
+  <si>
+    <t>站2吸盘到前取料位</t>
+  </si>
+  <si>
+    <t>站2吸盘到后取料位</t>
+  </si>
+  <si>
+    <t>站2上下翻转等待位</t>
+  </si>
+  <si>
+    <t>站2左CNC加工完成</t>
+  </si>
+  <si>
+    <t>站2左CNC屏蔽ing</t>
+  </si>
+  <si>
+    <t>站2右CNC加工完成</t>
+  </si>
+  <si>
+    <t>站2右CNC屏蔽ing</t>
+  </si>
+  <si>
+    <t>站3上下到等待位</t>
+  </si>
+  <si>
+    <t>站3上下到取料位</t>
+  </si>
+  <si>
+    <t>站3上下到左放料位</t>
+  </si>
+  <si>
+    <t>站3上下到右放料位</t>
+  </si>
+  <si>
+    <t>站3横移到取料位</t>
+  </si>
+  <si>
+    <t>站3横移到左放料位</t>
+  </si>
+  <si>
+    <t>站3横移到右放料位</t>
+  </si>
+  <si>
+    <t>站3旋转到取料位</t>
+  </si>
+  <si>
+    <t>站3旋转到(前放料/后取成)</t>
+  </si>
+  <si>
+    <t>站3旋转到(前取成/后放料)</t>
+  </si>
+  <si>
+    <t>站3吸盘到平移位</t>
+  </si>
+  <si>
+    <t>站3吸盘到前取料位</t>
+  </si>
+  <si>
+    <t>站3吸盘到后取料位</t>
+  </si>
+  <si>
+    <t>站3右CNC辅助启动</t>
+  </si>
+  <si>
+    <t>站3上下到翻转取料位</t>
+  </si>
+  <si>
+    <t>站3左CNC加工完成</t>
+  </si>
+  <si>
+    <t>站3左CNC屏蔽ing</t>
+  </si>
+  <si>
+    <t>站3右CNC加工完成</t>
+  </si>
+  <si>
+    <t>站4上下到等待位</t>
+  </si>
+  <si>
+    <t>站4上下到取料位</t>
+  </si>
+  <si>
+    <t>站4上下到左放料位</t>
+  </si>
+  <si>
+    <t>站4上下到右放料位</t>
+  </si>
+  <si>
+    <t>站4横移到取料位</t>
+  </si>
+  <si>
+    <t>站4横移到左放料位</t>
+  </si>
+  <si>
+    <t>站4横移到右放料位</t>
+  </si>
+  <si>
+    <t>站4旋转到取料位</t>
+  </si>
+  <si>
+    <t>站4旋转到(前放料/后取成)</t>
+  </si>
+  <si>
+    <t>站4旋转到(前取成/后放料)</t>
+  </si>
+  <si>
+    <t>站4吸盘到平移位</t>
+  </si>
+  <si>
+    <t>站4吸盘到前取料位</t>
+  </si>
+  <si>
+    <t>站4吸盘到后取料位</t>
+  </si>
+  <si>
+    <t>站4右CNC辅助启动</t>
+  </si>
+  <si>
+    <t>站4上下翻转等待位</t>
+  </si>
+  <si>
+    <t>站4左CNC加工完成</t>
+  </si>
+  <si>
+    <t>站4左CNC屏蔽ing</t>
+  </si>
+  <si>
+    <t>站4右CNC加工完成</t>
+  </si>
+  <si>
+    <t>站5上下到等待位</t>
+  </si>
+  <si>
+    <t>站5上下到取料位</t>
+  </si>
+  <si>
+    <t>站5上下到左放料位</t>
+  </si>
+  <si>
+    <t>站5上下到右放料位</t>
+  </si>
+  <si>
+    <t>站5横移到取料位</t>
+  </si>
+  <si>
+    <t>站5横移到左放料位</t>
+  </si>
+  <si>
+    <t>站5横移到右放料位</t>
+  </si>
+  <si>
+    <t>站5旋转到取料位</t>
+  </si>
+  <si>
+    <t>站5旋转到(前放料/后取成)</t>
+  </si>
+  <si>
+    <t>站5旋转到(前取成/后放料)</t>
+  </si>
+  <si>
+    <t>站5吸盘到平移位</t>
+  </si>
+  <si>
+    <t>站5吸盘到前取料位</t>
+  </si>
+  <si>
+    <t>站5吸盘到后取料位</t>
+  </si>
+  <si>
+    <t>站5右CNC辅助启动</t>
+  </si>
+  <si>
+    <t>站5上下翻转等待位</t>
+  </si>
+  <si>
+    <t>站5左CNC加工完成</t>
+  </si>
+  <si>
+    <t>站5左CNC屏蔽ing</t>
+  </si>
+  <si>
+    <t>站5右CNC加工完成</t>
+  </si>
+  <si>
+    <t>LB7000</t>
+  </si>
+  <si>
+    <t>LB7001</t>
+  </si>
+  <si>
+    <t>LB7002</t>
+  </si>
+  <si>
+    <t>LB7003</t>
+  </si>
+  <si>
+    <t>LB7004</t>
+  </si>
+  <si>
+    <t>LB7005</t>
+  </si>
+  <si>
+    <t>LB7006</t>
+  </si>
+  <si>
+    <t>LB7007</t>
+  </si>
+  <si>
+    <t>LB7008</t>
+  </si>
+  <si>
+    <t>LB7009</t>
+  </si>
+  <si>
+    <t>LB7010</t>
+  </si>
+  <si>
+    <t>LB7011</t>
+  </si>
+  <si>
+    <t>LB7012</t>
+  </si>
+  <si>
+    <t>LB7013</t>
+  </si>
+  <si>
+    <t>LB7014</t>
+  </si>
+  <si>
+    <t>LB7015</t>
+  </si>
+  <si>
+    <t>LB7019</t>
+  </si>
+  <si>
+    <t>LB7020</t>
+  </si>
+  <si>
+    <t>LB7021</t>
+  </si>
+  <si>
+    <t>LB7022</t>
+  </si>
+  <si>
+    <t>LB7024</t>
+  </si>
+  <si>
+    <t>LB7025</t>
+  </si>
+  <si>
+    <t>LB7026</t>
+  </si>
+  <si>
+    <t>LB7027</t>
+  </si>
+  <si>
+    <t>LB8000</t>
+  </si>
+  <si>
+    <t>LB8001</t>
+  </si>
+  <si>
+    <t>LB8002</t>
+  </si>
+  <si>
+    <t>LB8003</t>
+  </si>
+  <si>
+    <t>LB8004</t>
+  </si>
+  <si>
+    <t>LB8005</t>
+  </si>
+  <si>
+    <t>LB8006</t>
+  </si>
+  <si>
+    <t>LB8007</t>
+  </si>
+  <si>
+    <t>LB8008</t>
+  </si>
+  <si>
+    <t>LB8009</t>
+  </si>
+  <si>
+    <t>LB8010</t>
+  </si>
+  <si>
+    <t>LB8011</t>
+  </si>
+  <si>
+    <t>LB8012</t>
+  </si>
+  <si>
+    <t>LB8013</t>
+  </si>
+  <si>
+    <t>LB8014</t>
+  </si>
+  <si>
+    <t>LB8015</t>
+  </si>
+  <si>
+    <t>LB8019</t>
+  </si>
+  <si>
+    <t>LB8020</t>
+  </si>
+  <si>
+    <t>LB8021</t>
+  </si>
+  <si>
+    <t>LB8022</t>
+  </si>
+  <si>
+    <t>LB8024</t>
+  </si>
+  <si>
+    <t>LB8025</t>
+  </si>
+  <si>
+    <t>LB8026</t>
+  </si>
+  <si>
+    <t>LB8027</t>
+  </si>
+  <si>
+    <t>LB8040</t>
+  </si>
+  <si>
+    <t>LB8041</t>
+  </si>
+  <si>
+    <t>LB8042</t>
+  </si>
+  <si>
+    <t>LB8043</t>
+  </si>
+  <si>
+    <t>LB8044</t>
+  </si>
+  <si>
+    <t>LB8045</t>
+  </si>
+  <si>
+    <t>LB8046</t>
+  </si>
+  <si>
+    <t>LB8047</t>
+  </si>
+  <si>
+    <t>LB8048</t>
+  </si>
+  <si>
+    <t>LB8049</t>
+  </si>
+  <si>
+    <t>LB8050</t>
+  </si>
+  <si>
+    <t>LB8051</t>
+  </si>
+  <si>
+    <t>LB8052</t>
+  </si>
+  <si>
+    <t>LB8053</t>
+  </si>
+  <si>
+    <t>LB8054</t>
+  </si>
+  <si>
+    <t>LB8055</t>
+  </si>
+  <si>
+    <t>LB8056</t>
+  </si>
+  <si>
+    <t>LB8057</t>
+  </si>
+  <si>
+    <t>LB8058</t>
+  </si>
+  <si>
+    <t>LB8059</t>
+  </si>
+  <si>
+    <t>LB8060</t>
+  </si>
+  <si>
+    <t>LB8061</t>
+  </si>
+  <si>
+    <t>LB8062</t>
+  </si>
+  <si>
+    <t>LB8063</t>
+  </si>
+  <si>
+    <t>LB8064</t>
+  </si>
+  <si>
+    <t>LB8065</t>
+  </si>
+  <si>
+    <t>LB8080</t>
+  </si>
+  <si>
+    <t>LB8081</t>
+  </si>
+  <si>
+    <t>LB8082</t>
+  </si>
+  <si>
+    <t>LB8083</t>
+  </si>
+  <si>
+    <t>LB8084</t>
+  </si>
+  <si>
+    <t>LB8085</t>
+  </si>
+  <si>
+    <t>LB8086</t>
+  </si>
+  <si>
+    <t>LB8087</t>
+  </si>
+  <si>
+    <t>LB8088</t>
+  </si>
+  <si>
+    <t>LB8089</t>
+  </si>
+  <si>
+    <t>LB8090</t>
+  </si>
+  <si>
+    <t>LB8091</t>
+  </si>
+  <si>
+    <t>LB8092</t>
+  </si>
+  <si>
+    <t>LB8093</t>
+  </si>
+  <si>
+    <t>LB8094</t>
+  </si>
+  <si>
+    <t>LB8095</t>
+  </si>
+  <si>
+    <t>LB8096</t>
+  </si>
+  <si>
+    <t>LB8097</t>
+  </si>
+  <si>
+    <t>LB8098</t>
+  </si>
+  <si>
+    <t>LB8099</t>
+  </si>
+  <si>
+    <t>LB8100</t>
+  </si>
+  <si>
+    <t>LB8101</t>
+  </si>
+  <si>
+    <t>LB8102</t>
+  </si>
+  <si>
+    <t>LB8103</t>
+  </si>
+  <si>
+    <t>LB8104</t>
+  </si>
+  <si>
+    <t>LB8105</t>
+  </si>
+  <si>
+    <t>LB8120</t>
+  </si>
+  <si>
+    <t>LB8121</t>
+  </si>
+  <si>
+    <t>LB8122</t>
+  </si>
+  <si>
+    <t>LB8123</t>
+  </si>
+  <si>
+    <t>LB8124</t>
+  </si>
+  <si>
+    <t>LB8125</t>
+  </si>
+  <si>
+    <t>LB8126</t>
+  </si>
+  <si>
+    <t>LB8127</t>
+  </si>
+  <si>
+    <t>LB8128</t>
+  </si>
+  <si>
+    <t>LB8129</t>
+  </si>
+  <si>
+    <t>LB8130</t>
+  </si>
+  <si>
+    <t>LB8131</t>
+  </si>
+  <si>
+    <t>LB8132</t>
+  </si>
+  <si>
+    <t>LB8133</t>
+  </si>
+  <si>
+    <t>LB8134</t>
+  </si>
+  <si>
+    <t>LB8135</t>
+  </si>
+  <si>
+    <t>LB8136</t>
+  </si>
+  <si>
+    <t>LB8137</t>
+  </si>
+  <si>
+    <t>LB8138</t>
+  </si>
+  <si>
+    <t>LB8139</t>
+  </si>
+  <si>
+    <t>LB8140</t>
+  </si>
+  <si>
+    <t>LB8141</t>
+  </si>
+  <si>
+    <t>LB8142</t>
+  </si>
+  <si>
+    <t>LB8143</t>
+  </si>
+  <si>
+    <t>LB8144</t>
+  </si>
+  <si>
+    <t>LB8145</t>
+  </si>
+  <si>
     <t>生产线故障状态</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站1画面</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>X781</t>
-  </si>
-  <si>
-    <t>站1右CNC加工中（通讯输入2）</t>
-  </si>
-  <si>
-    <t>控制站1CNC数控机床加工状态灯的亮灭</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于站1的运行状态灯</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4510</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站1预设产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站1目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4500</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站1当前产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站1实际产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站1完成率</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站1实际产量/站1目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站1运行时间</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用站1的运行状态来设置</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站2画面</t>
-  </si>
-  <si>
-    <t>X784</t>
-  </si>
-  <si>
-    <t>站2右CNC加工中（通讯输入2）</t>
-  </si>
-  <si>
-    <t>控制站2CNC数控机床加工状态灯的亮灭</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于站2的运行状态灯</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站2运行时间</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用站2的运行状态来设置</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站2完成率</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站2实际产量/站2目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4512</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站2预设产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站2目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4502</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站2当前产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站2实际产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站3画面</t>
-  </si>
-  <si>
-    <t>X7A1</t>
-  </si>
-  <si>
-    <t>站3右CNC通讯输入2</t>
-  </si>
-  <si>
-    <t>控制站3CNC数控机床加工状态灯的亮灭</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于站3的运行状态灯</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站3运行时间</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用站3的运行状态来设置</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站3完成率</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站3实际产量/站3目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4514</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站3预设产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站3目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4504</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站3当前产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站3实际产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站4画面</t>
-  </si>
-  <si>
-    <t>X702</t>
-  </si>
-  <si>
-    <t>站4右CNC通讯输入2</t>
-  </si>
-  <si>
-    <t>控制站4CNC数控机床加工状态灯的亮灭</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于站4的运行状态灯</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站4运行时间</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用站4的运行状态来设置</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站4完成率</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站4实际产量/站4目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4516</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站4预设产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站4目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4506</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站4当前产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站4实际产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站5画面</t>
-  </si>
-  <si>
-    <t>X7C1</t>
-  </si>
-  <si>
-    <t>站5右CNC通讯输入2</t>
-  </si>
-  <si>
-    <t>控制站5CNC数控机床加工状态灯的亮灭</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于站5的运行状态灯</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站5运行时间</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>用站5的运行状态来设置</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站5完成率</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站5实际产量/站5目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4518</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站5预设产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站5目标产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4508</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工站5当前产量（块）</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>站5实际产量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>M400</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>下料满</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>M400-》M3136</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3130</t>
-  </si>
-  <si>
-    <t>HMI输送线启动</t>
-  </si>
-  <si>
-    <t>小车输送线启停状态</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3136</t>
-  </si>
-  <si>
-    <t>输送线暂停</t>
-  </si>
-  <si>
-    <t>LW4536</t>
-  </si>
-  <si>
-    <t>LW4526</t>
-  </si>
-  <si>
-    <t>LB7</t>
-  </si>
-  <si>
-    <t>LB8</t>
-  </si>
-  <si>
-    <t>LB9</t>
-  </si>
-  <si>
-    <t>LB781</t>
-  </si>
-  <si>
-    <t>LW4510</t>
-  </si>
-  <si>
-    <t>LW4500</t>
-  </si>
-  <si>
-    <t>LB784</t>
-  </si>
-  <si>
-    <t>LW4512</t>
-  </si>
-  <si>
-    <t>LW4502</t>
-  </si>
-  <si>
-    <t>LB7A1</t>
-  </si>
-  <si>
-    <t>LW4514</t>
-  </si>
-  <si>
-    <t>LW4504</t>
-  </si>
-  <si>
-    <t>LB702</t>
-  </si>
-  <si>
-    <t>LW4516</t>
-  </si>
-  <si>
-    <t>LW4506</t>
-  </si>
-  <si>
-    <t>LB7C1</t>
-  </si>
-  <si>
-    <t>LW4518</t>
-  </si>
-  <si>
-    <t>LW4508</t>
-  </si>
-  <si>
-    <t>LB3130</t>
-  </si>
-  <si>
-    <t>LB3136</t>
-  </si>
-  <si>
-    <t>D4536</t>
-  </si>
-  <si>
-    <t>D4526</t>
-  </si>
-  <si>
-    <t>D4510</t>
-  </si>
-  <si>
-    <t>D4500</t>
-  </si>
-  <si>
-    <t>D4512</t>
-  </si>
-  <si>
-    <t>D4502</t>
-  </si>
-  <si>
-    <t>D4514</t>
-  </si>
-  <si>
-    <t>D4504</t>
-  </si>
-  <si>
-    <t>D4516</t>
-  </si>
-  <si>
-    <t>D4506</t>
-  </si>
-  <si>
-    <t>D4518</t>
-  </si>
-  <si>
-    <t>D4508</t>
-  </si>
-  <si>
-    <t>M7000</t>
-  </si>
-  <si>
-    <t>M7001</t>
-  </si>
-  <si>
-    <t>M7002</t>
-  </si>
-  <si>
-    <t>M7003</t>
-  </si>
-  <si>
-    <t>M7004</t>
-  </si>
-  <si>
-    <t>M7005</t>
-  </si>
-  <si>
-    <t>M7006</t>
-  </si>
-  <si>
-    <t>M7007</t>
-  </si>
-  <si>
-    <t>M7008</t>
-  </si>
-  <si>
-    <t>M7009</t>
-  </si>
-  <si>
-    <t>M7010</t>
-  </si>
-  <si>
-    <t>M7011</t>
-  </si>
-  <si>
-    <t>M7012</t>
-  </si>
-  <si>
-    <t>M7013</t>
-  </si>
-  <si>
-    <t>M7014</t>
-  </si>
-  <si>
-    <t>M7015</t>
-  </si>
-  <si>
-    <t>M7019</t>
-  </si>
-  <si>
-    <t>M7020</t>
-  </si>
-  <si>
-    <t>M7021</t>
-  </si>
-  <si>
-    <t>M7022</t>
-  </si>
-  <si>
-    <t>M7024</t>
-  </si>
-  <si>
-    <t>M7025</t>
-  </si>
-  <si>
-    <t>M7026</t>
-  </si>
-  <si>
-    <t>M7027</t>
-  </si>
-  <si>
-    <t>M8000</t>
-  </si>
-  <si>
-    <t>M8001</t>
-  </si>
-  <si>
-    <t>M8002</t>
-  </si>
-  <si>
-    <t>M8003</t>
-  </si>
-  <si>
-    <t>M8004</t>
-  </si>
-  <si>
-    <t>M8005</t>
-  </si>
-  <si>
-    <t>M8006</t>
-  </si>
-  <si>
-    <t>M8007</t>
-  </si>
-  <si>
-    <t>M8008</t>
-  </si>
-  <si>
-    <t>M8009</t>
-  </si>
-  <si>
-    <t>M8010</t>
-  </si>
-  <si>
-    <t>M8011</t>
-  </si>
-  <si>
-    <t>M8012</t>
-  </si>
-  <si>
-    <t>M8013</t>
-  </si>
-  <si>
-    <t>M8014</t>
-  </si>
-  <si>
-    <t>M8015</t>
-  </si>
-  <si>
-    <t>M8019</t>
-  </si>
-  <si>
-    <t>M8020</t>
-  </si>
-  <si>
-    <t>M8021</t>
-  </si>
-  <si>
-    <t>M8022</t>
-  </si>
-  <si>
-    <t>M8024</t>
-  </si>
-  <si>
-    <t>M8025</t>
-  </si>
-  <si>
-    <t>M8026</t>
-  </si>
-  <si>
-    <t>M8027</t>
-  </si>
-  <si>
-    <t>M8040</t>
-  </si>
-  <si>
-    <t>M8041</t>
-  </si>
-  <si>
-    <t>M8042</t>
-  </si>
-  <si>
-    <t>M8043</t>
-  </si>
-  <si>
-    <t>M8044</t>
-  </si>
-  <si>
-    <t>M8045</t>
-  </si>
-  <si>
-    <t>M8046</t>
-  </si>
-  <si>
-    <t>M8047</t>
-  </si>
-  <si>
-    <t>M8048</t>
-  </si>
-  <si>
-    <t>M8049</t>
-  </si>
-  <si>
-    <t>M8050</t>
-  </si>
-  <si>
-    <t>M8051</t>
-  </si>
-  <si>
-    <t>M8052</t>
-  </si>
-  <si>
-    <t>M8053</t>
-  </si>
-  <si>
-    <t>M8054</t>
-  </si>
-  <si>
-    <t>M8055</t>
-  </si>
-  <si>
-    <t>M8056</t>
-  </si>
-  <si>
-    <t>M8057</t>
-  </si>
-  <si>
-    <t>M8058</t>
-  </si>
-  <si>
-    <t>M8059</t>
-  </si>
-  <si>
-    <t>M8060</t>
-  </si>
-  <si>
-    <t>M8061</t>
-  </si>
-  <si>
-    <t>M8062</t>
-  </si>
-  <si>
-    <t>M8063</t>
-  </si>
-  <si>
-    <t>M8064</t>
-  </si>
-  <si>
-    <t>M8065</t>
-  </si>
-  <si>
-    <t>M8080</t>
-  </si>
-  <si>
-    <t>M8081</t>
-  </si>
-  <si>
-    <t>M8082</t>
-  </si>
-  <si>
-    <t>M8083</t>
-  </si>
-  <si>
-    <t>M8084</t>
-  </si>
-  <si>
-    <t>M8085</t>
-  </si>
-  <si>
-    <t>M8086</t>
-  </si>
-  <si>
-    <t>M8087</t>
-  </si>
-  <si>
-    <t>M8088</t>
-  </si>
-  <si>
-    <t>M8089</t>
-  </si>
-  <si>
-    <t>M8090</t>
-  </si>
-  <si>
-    <t>M8091</t>
-  </si>
-  <si>
-    <t>M8092</t>
-  </si>
-  <si>
-    <t>M8093</t>
-  </si>
-  <si>
-    <t>M8094</t>
-  </si>
-  <si>
-    <t>M8095</t>
-  </si>
-  <si>
-    <t>M8096</t>
-  </si>
-  <si>
-    <t>M8097</t>
-  </si>
-  <si>
-    <t>M8098</t>
-  </si>
-  <si>
-    <t>M8099</t>
-  </si>
-  <si>
-    <t>M8100</t>
-  </si>
-  <si>
-    <t>M8101</t>
-  </si>
-  <si>
-    <t>M8102</t>
-  </si>
-  <si>
-    <t>M8103</t>
-  </si>
-  <si>
-    <t>M8104</t>
-  </si>
-  <si>
-    <t>M8105</t>
-  </si>
-  <si>
-    <t>M8120</t>
-  </si>
-  <si>
-    <t>M8121</t>
-  </si>
-  <si>
-    <t>M8122</t>
-  </si>
-  <si>
-    <t>M8123</t>
-  </si>
-  <si>
-    <t>M8124</t>
-  </si>
-  <si>
-    <t>M8125</t>
-  </si>
-  <si>
-    <t>M8126</t>
-  </si>
-  <si>
-    <t>M8127</t>
-  </si>
-  <si>
-    <t>M8128</t>
-  </si>
-  <si>
-    <t>M8129</t>
-  </si>
-  <si>
-    <t>M8130</t>
-  </si>
-  <si>
-    <t>M8131</t>
-  </si>
-  <si>
-    <t>M8132</t>
-  </si>
-  <si>
-    <t>M8133</t>
-  </si>
-  <si>
-    <t>M8134</t>
-  </si>
-  <si>
-    <t>M8135</t>
-  </si>
-  <si>
-    <t>M8136</t>
-  </si>
-  <si>
-    <t>M8137</t>
-  </si>
-  <si>
-    <t>M8138</t>
-  </si>
-  <si>
-    <t>M8139</t>
-  </si>
-  <si>
-    <t>M8140</t>
-  </si>
-  <si>
-    <t>M8141</t>
-  </si>
-  <si>
-    <t>M8142</t>
-  </si>
-  <si>
-    <t>M8143</t>
-  </si>
-  <si>
-    <t>M8144</t>
-  </si>
-  <si>
-    <t>M8145</t>
-  </si>
-  <si>
-    <t>站1上下到等待位</t>
-  </si>
-  <si>
-    <t>站1上下到取料位</t>
-  </si>
-  <si>
-    <t>站1上下到左放料位</t>
-  </si>
-  <si>
-    <t>站1上下到右放料位</t>
-  </si>
-  <si>
-    <t>站1横移到取料位</t>
-  </si>
-  <si>
-    <t>站1横移到左放料位</t>
-  </si>
-  <si>
-    <t>站1横移到右放料位</t>
-  </si>
-  <si>
-    <t>站1旋转到取料位</t>
-  </si>
-  <si>
-    <t>站1旋转到(前放料/后取成)</t>
-  </si>
-  <si>
-    <t>站1旋转到(前取成/后放料)</t>
-  </si>
-  <si>
-    <t>站1吸盘到平移位</t>
-  </si>
-  <si>
-    <t>站1吸盘到前取料位</t>
-  </si>
-  <si>
-    <t>站1吸盘到后取料位</t>
-  </si>
-  <si>
-    <t>站1左CNC辅助启动</t>
-  </si>
-  <si>
-    <t>站1右CNC辅助启动</t>
-  </si>
-  <si>
-    <t>站1上下到翻转等待位</t>
-  </si>
-  <si>
-    <t>站1左CNC加工完成</t>
-  </si>
-  <si>
-    <t>站1左CNC等待上料</t>
-  </si>
-  <si>
-    <t>站1左CNC屏蔽ing</t>
-  </si>
-  <si>
-    <t>站1右CNC加工完成</t>
-  </si>
-  <si>
-    <t>站1右CNC屏蔽ing</t>
-  </si>
-  <si>
-    <t>站2上下到等待位</t>
-  </si>
-  <si>
-    <t>站2上下到取料位</t>
-  </si>
-  <si>
-    <t>站2上下到左放料位</t>
-  </si>
-  <si>
-    <t>站2上下到右放料位</t>
-  </si>
-  <si>
-    <t>站2横移到取料位</t>
-  </si>
-  <si>
-    <t>站2横移到左放料位</t>
-  </si>
-  <si>
-    <t>站2横移到右放料位</t>
-  </si>
-  <si>
-    <t>站2旋转到取料位</t>
-  </si>
-  <si>
-    <t>站2旋转到(前放料/后取成)</t>
-  </si>
-  <si>
-    <t>站2旋转到(前取成/后放料)</t>
-  </si>
-  <si>
-    <t>站2吸盘到平移位</t>
-  </si>
-  <si>
-    <t>站2吸盘到前取料位</t>
-  </si>
-  <si>
-    <t>站2吸盘到后取料位</t>
-  </si>
-  <si>
-    <t>站2上下翻转等待位</t>
-  </si>
-  <si>
-    <t>站2左CNC加工完成</t>
-  </si>
-  <si>
-    <t>站2左CNC屏蔽ing</t>
-  </si>
-  <si>
-    <t>站2右CNC加工完成</t>
-  </si>
-  <si>
-    <t>站2右CNC屏蔽ing</t>
-  </si>
-  <si>
-    <t>站3上下到等待位</t>
-  </si>
-  <si>
-    <t>站3上下到取料位</t>
-  </si>
-  <si>
-    <t>站3上下到左放料位</t>
-  </si>
-  <si>
-    <t>站3上下到右放料位</t>
-  </si>
-  <si>
-    <t>站3横移到取料位</t>
-  </si>
-  <si>
-    <t>站3横移到左放料位</t>
-  </si>
-  <si>
-    <t>站3横移到右放料位</t>
-  </si>
-  <si>
-    <t>站3旋转到取料位</t>
-  </si>
-  <si>
-    <t>站3旋转到(前放料/后取成)</t>
-  </si>
-  <si>
-    <t>站3旋转到(前取成/后放料)</t>
-  </si>
-  <si>
-    <t>站3吸盘到平移位</t>
-  </si>
-  <si>
-    <t>站3吸盘到前取料位</t>
-  </si>
-  <si>
-    <t>站3吸盘到后取料位</t>
-  </si>
-  <si>
-    <t>站3右CNC辅助启动</t>
-  </si>
-  <si>
-    <t>站3上下到翻转取料位</t>
-  </si>
-  <si>
-    <t>站3左CNC加工完成</t>
-  </si>
-  <si>
-    <t>站3左CNC屏蔽ing</t>
-  </si>
-  <si>
-    <t>站3右CNC加工完成</t>
-  </si>
-  <si>
-    <t>站4上下到等待位</t>
-  </si>
-  <si>
-    <t>站4上下到取料位</t>
-  </si>
-  <si>
-    <t>站4上下到左放料位</t>
-  </si>
-  <si>
-    <t>站4上下到右放料位</t>
-  </si>
-  <si>
-    <t>站4横移到取料位</t>
-  </si>
-  <si>
-    <t>站4横移到左放料位</t>
-  </si>
-  <si>
-    <t>站4横移到右放料位</t>
-  </si>
-  <si>
-    <t>站4旋转到取料位</t>
-  </si>
-  <si>
-    <t>站4旋转到(前放料/后取成)</t>
-  </si>
-  <si>
-    <t>站4旋转到(前取成/后放料)</t>
-  </si>
-  <si>
-    <t>站4吸盘到平移位</t>
-  </si>
-  <si>
-    <t>站4吸盘到前取料位</t>
-  </si>
-  <si>
-    <t>站4吸盘到后取料位</t>
-  </si>
-  <si>
-    <t>站4右CNC辅助启动</t>
-  </si>
-  <si>
-    <t>站4上下翻转等待位</t>
-  </si>
-  <si>
-    <t>站4左CNC加工完成</t>
-  </si>
-  <si>
-    <t>站4左CNC屏蔽ing</t>
-  </si>
-  <si>
-    <t>站4右CNC加工完成</t>
-  </si>
-  <si>
-    <t>站5上下到等待位</t>
-  </si>
-  <si>
-    <t>站5上下到取料位</t>
-  </si>
-  <si>
-    <t>站5上下到左放料位</t>
-  </si>
-  <si>
-    <t>站5上下到右放料位</t>
-  </si>
-  <si>
-    <t>站5横移到取料位</t>
-  </si>
-  <si>
-    <t>站5横移到左放料位</t>
-  </si>
-  <si>
-    <t>站5横移到右放料位</t>
-  </si>
-  <si>
-    <t>站5旋转到取料位</t>
-  </si>
-  <si>
-    <t>站5旋转到(前放料/后取成)</t>
-  </si>
-  <si>
-    <t>站5旋转到(前取成/后放料)</t>
-  </si>
-  <si>
-    <t>站5吸盘到平移位</t>
-  </si>
-  <si>
-    <t>站5吸盘到前取料位</t>
-  </si>
-  <si>
-    <t>站5吸盘到后取料位</t>
-  </si>
-  <si>
-    <t>站5右CNC辅助启动</t>
-  </si>
-  <si>
-    <t>站5上下翻转等待位</t>
-  </si>
-  <si>
-    <t>站5左CNC加工完成</t>
-  </si>
-  <si>
-    <t>站5左CNC屏蔽ing</t>
-  </si>
-  <si>
-    <t>站5右CNC加工完成</t>
-  </si>
-  <si>
-    <t>LB7000</t>
-  </si>
-  <si>
-    <t>LB7001</t>
-  </si>
-  <si>
-    <t>LB7002</t>
-  </si>
-  <si>
-    <t>LB7003</t>
-  </si>
-  <si>
-    <t>LB7004</t>
-  </si>
-  <si>
-    <t>LB7005</t>
-  </si>
-  <si>
-    <t>LB7006</t>
-  </si>
-  <si>
-    <t>LB7007</t>
-  </si>
-  <si>
-    <t>LB7008</t>
-  </si>
-  <si>
-    <t>LB7009</t>
-  </si>
-  <si>
-    <t>LB7010</t>
-  </si>
-  <si>
-    <t>LB7011</t>
-  </si>
-  <si>
-    <t>LB7012</t>
-  </si>
-  <si>
-    <t>LB7013</t>
-  </si>
-  <si>
-    <t>LB7014</t>
-  </si>
-  <si>
-    <t>LB7015</t>
-  </si>
-  <si>
-    <t>LB7019</t>
-  </si>
-  <si>
-    <t>LB7020</t>
-  </si>
-  <si>
-    <t>LB7021</t>
-  </si>
-  <si>
-    <t>LB7022</t>
-  </si>
-  <si>
-    <t>LB7024</t>
-  </si>
-  <si>
-    <t>LB7025</t>
-  </si>
-  <si>
-    <t>LB7026</t>
-  </si>
-  <si>
-    <t>LB7027</t>
-  </si>
-  <si>
-    <t>LB8000</t>
-  </si>
-  <si>
-    <t>LB8001</t>
-  </si>
-  <si>
-    <t>LB8002</t>
-  </si>
-  <si>
-    <t>LB8003</t>
-  </si>
-  <si>
-    <t>LB8004</t>
-  </si>
-  <si>
-    <t>LB8005</t>
-  </si>
-  <si>
-    <t>LB8006</t>
-  </si>
-  <si>
-    <t>LB8007</t>
-  </si>
-  <si>
-    <t>LB8008</t>
-  </si>
-  <si>
-    <t>LB8009</t>
-  </si>
-  <si>
-    <t>LB8010</t>
-  </si>
-  <si>
-    <t>LB8011</t>
-  </si>
-  <si>
-    <t>LB8012</t>
-  </si>
-  <si>
-    <t>LB8013</t>
-  </si>
-  <si>
-    <t>LB8014</t>
-  </si>
-  <si>
-    <t>LB8015</t>
-  </si>
-  <si>
-    <t>LB8019</t>
-  </si>
-  <si>
-    <t>LB8020</t>
-  </si>
-  <si>
-    <t>LB8021</t>
-  </si>
-  <si>
-    <t>LB8022</t>
-  </si>
-  <si>
-    <t>LB8024</t>
-  </si>
-  <si>
-    <t>LB8025</t>
-  </si>
-  <si>
-    <t>LB8026</t>
-  </si>
-  <si>
-    <t>LB8027</t>
-  </si>
-  <si>
-    <t>LB8040</t>
-  </si>
-  <si>
-    <t>LB8041</t>
-  </si>
-  <si>
-    <t>LB8042</t>
-  </si>
-  <si>
-    <t>LB8043</t>
-  </si>
-  <si>
-    <t>LB8044</t>
-  </si>
-  <si>
-    <t>LB8045</t>
-  </si>
-  <si>
-    <t>LB8046</t>
-  </si>
-  <si>
-    <t>LB8047</t>
-  </si>
-  <si>
-    <t>LB8048</t>
-  </si>
-  <si>
-    <t>LB8049</t>
-  </si>
-  <si>
-    <t>LB8050</t>
-  </si>
-  <si>
-    <t>LB8051</t>
-  </si>
-  <si>
-    <t>LB8052</t>
-  </si>
-  <si>
-    <t>LB8053</t>
-  </si>
-  <si>
-    <t>LB8054</t>
-  </si>
-  <si>
-    <t>LB8055</t>
-  </si>
-  <si>
-    <t>LB8056</t>
-  </si>
-  <si>
-    <t>LB8057</t>
-  </si>
-  <si>
-    <t>LB8058</t>
-  </si>
-  <si>
-    <t>LB8059</t>
-  </si>
-  <si>
-    <t>LB8060</t>
-  </si>
-  <si>
-    <t>LB8061</t>
-  </si>
-  <si>
-    <t>LB8062</t>
-  </si>
-  <si>
-    <t>LB8063</t>
-  </si>
-  <si>
-    <t>LB8064</t>
-  </si>
-  <si>
-    <t>LB8065</t>
-  </si>
-  <si>
-    <t>LB8080</t>
-  </si>
-  <si>
-    <t>LB8081</t>
-  </si>
-  <si>
-    <t>LB8082</t>
-  </si>
-  <si>
-    <t>LB8083</t>
-  </si>
-  <si>
-    <t>LB8084</t>
-  </si>
-  <si>
-    <t>LB8085</t>
-  </si>
-  <si>
-    <t>LB8086</t>
-  </si>
-  <si>
-    <t>LB8087</t>
-  </si>
-  <si>
-    <t>LB8088</t>
-  </si>
-  <si>
-    <t>LB8089</t>
-  </si>
-  <si>
-    <t>LB8090</t>
-  </si>
-  <si>
-    <t>LB8091</t>
-  </si>
-  <si>
-    <t>LB8092</t>
-  </si>
-  <si>
-    <t>LB8093</t>
-  </si>
-  <si>
-    <t>LB8094</t>
-  </si>
-  <si>
-    <t>LB8095</t>
-  </si>
-  <si>
-    <t>LB8096</t>
-  </si>
-  <si>
-    <t>LB8097</t>
-  </si>
-  <si>
-    <t>LB8098</t>
-  </si>
-  <si>
-    <t>LB8099</t>
-  </si>
-  <si>
-    <t>LB8100</t>
-  </si>
-  <si>
-    <t>LB8101</t>
-  </si>
-  <si>
-    <t>LB8102</t>
-  </si>
-  <si>
-    <t>LB8103</t>
-  </si>
-  <si>
-    <t>LB8104</t>
-  </si>
-  <si>
-    <t>LB8105</t>
-  </si>
-  <si>
-    <t>LB8120</t>
-  </si>
-  <si>
-    <t>LB8121</t>
-  </si>
-  <si>
-    <t>LB8122</t>
-  </si>
-  <si>
-    <t>LB8123</t>
-  </si>
-  <si>
-    <t>LB8124</t>
-  </si>
-  <si>
-    <t>LB8125</t>
-  </si>
-  <si>
-    <t>LB8126</t>
-  </si>
-  <si>
-    <t>LB8127</t>
-  </si>
-  <si>
-    <t>LB8128</t>
-  </si>
-  <si>
-    <t>LB8129</t>
-  </si>
-  <si>
-    <t>LB8130</t>
-  </si>
-  <si>
-    <t>LB8131</t>
-  </si>
-  <si>
-    <t>LB8132</t>
-  </si>
-  <si>
-    <t>LB8133</t>
-  </si>
-  <si>
-    <t>LB8134</t>
-  </si>
-  <si>
-    <t>LB8135</t>
-  </si>
-  <si>
-    <t>LB8136</t>
-  </si>
-  <si>
-    <t>LB8137</t>
-  </si>
-  <si>
-    <t>LB8138</t>
-  </si>
-  <si>
-    <t>LB8139</t>
-  </si>
-  <si>
-    <t>LB8140</t>
-  </si>
-  <si>
-    <t>LB8141</t>
-  </si>
-  <si>
-    <t>LB8142</t>
-  </si>
-  <si>
-    <t>LB8143</t>
-  </si>
-  <si>
-    <t>LB8144</t>
-  </si>
-  <si>
-    <t>LB8145</t>
   </si>
 </sst>
 </file>
@@ -3429,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E1E7A-D55B-4209-9AA8-8C47268BF6B5}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5089,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD35890-9E09-48E1-AAD0-F3433AB7274A}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5539,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282B03E3-F049-4FAE-B767-B79205C70F1F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,8 +5929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED724FD2-37F6-4369-979A-69881B916AA8}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F60"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5987,10 +5986,10 @@
         <v>513</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,10 +6004,10 @@
         <v>516</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6043,7 +6042,7 @@
         <v>523</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>521</v>
@@ -6059,7 +6058,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>524</v>
@@ -6071,11 +6070,11 @@
         <v>526</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>527</v>
+        <v>990</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>526</v>
@@ -6089,22 +6088,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6116,7 +6115,7 @@
         <v>458</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>480</v>
@@ -6160,57 +6159,57 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6221,22 +6220,22 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,7 +6247,7 @@
         <v>462</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>485</v>
@@ -6293,56 +6292,56 @@
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6353,22 +6352,22 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6380,7 +6379,7 @@
         <v>466</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>490</v>
@@ -6425,56 +6424,56 @@
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6485,22 +6484,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6512,7 +6511,7 @@
         <v>470</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>495</v>
@@ -6557,56 +6556,56 @@
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6617,22 +6616,22 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,7 +6643,7 @@
         <v>474</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>500</v>
@@ -6689,56 +6688,56 @@
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6749,16 +6748,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>504</v>
@@ -6770,35 +6769,35 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>609</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6815,6 +6814,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A29:A36"/>
@@ -6823,12 +6828,6 @@
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6838,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F88D21D-F4C2-4C8F-821D-4730A620D578}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6867,1667 +6866,1667 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mapping_1.xlsx
+++ b/docs/mapping_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{64DBC902-9248-42B5-B241-B154A5F5B0EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{616AB6FF-5121-45EB-BF13-DB684AC39333}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="料盒动作地址" sheetId="4" r:id="rId1"/>
@@ -3428,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E1E7A-D55B-4209-9AA8-8C47268BF6B5}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD35890-9E09-48E1-AAD0-F3433AB7274A}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -5538,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282B03E3-F049-4FAE-B767-B79205C70F1F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,7 +5929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED724FD2-37F6-4369-979A-69881B916AA8}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -6814,12 +6814,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A29:A36"/>
@@ -6828,6 +6822,12 @@
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="D48:D50"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6837,7 +6837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F88D21D-F4C2-4C8F-821D-4730A620D578}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/docs/mapping_1.xlsx
+++ b/docs/mapping_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{616AB6FF-5121-45EB-BF13-DB684AC39333}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{31A39123-9B6A-44A1-B8F1-EEDB2332A466}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3428,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E1E7A-D55B-4209-9AA8-8C47268BF6B5}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD35890-9E09-48E1-AAD0-F3433AB7274A}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -5538,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282B03E3-F049-4FAE-B767-B79205C70F1F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,8 +5929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED724FD2-37F6-4369-979A-69881B916AA8}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6814,6 +6814,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A29:A36"/>
@@ -6822,12 +6828,6 @@
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6837,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F88D21D-F4C2-4C8F-821D-4730A620D578}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
